--- a/public/prospects_template.xlsx
+++ b/public/prospects_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it.development\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it.development\WebstormProjects\Ma_prospection_front_end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD46C32-3B8A-4E23-A46B-47AB13A27879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD2540-F970-478B-9FE2-CE9DC2C067ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="393">
   <si>
     <t>description_entreprise</t>
   </si>
@@ -68,93 +68,15 @@
     <t>année_de_création</t>
   </si>
   <si>
-    <t>42:22.0</t>
-  </si>
-  <si>
-    <t>46:59.0</t>
-  </si>
-  <si>
-    <t>00:39.0</t>
-  </si>
-  <si>
-    <t>03:34.0</t>
-  </si>
-  <si>
-    <t>45:05.0</t>
-  </si>
-  <si>
-    <t>38:48.0</t>
-  </si>
-  <si>
     <t>test de creation de prospect</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test test test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test de creation de prospect </t>
-  </si>
-  <si>
-    <t>05:43.0</t>
-  </si>
-  <si>
-    <t>alayoub33@gmail.com</t>
-  </si>
-  <si>
-    <t>alayoub44@gmail.com</t>
-  </si>
-  <si>
-    <t>alayoub55@gmail.com</t>
-  </si>
-  <si>
-    <t>alayoub35@gmail.com</t>
-  </si>
-  <si>
-    <t>alayoub53@gmail.com</t>
-  </si>
-  <si>
-    <t>oussama@gmail.com</t>
-  </si>
-  <si>
-    <t>alayoub73@gmail.com</t>
-  </si>
-  <si>
     <t>test 123</t>
   </si>
   <si>
-    <t>123654</t>
-  </si>
-  <si>
     <t>ayoub</t>
   </si>
   <si>
-    <t>121314</t>
-  </si>
-  <si>
-    <t>teststt</t>
-  </si>
-  <si>
-    <t>ayoub lemrachchaq</t>
-  </si>
-  <si>
-    <t>sud transmission</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test 4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>ayoub 33</t>
-  </si>
-  <si>
     <t>Fax</t>
   </si>
   <si>
@@ -1272,16 +1194,30 @@
   </si>
   <si>
     <t>Mme</t>
+  </si>
+  <si>
+    <t>marsa maroc 2</t>
+  </si>
+  <si>
+    <t>marsa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1325,8 +1261,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1334,9 +1271,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1345,13 +1283,6 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1365,6 +1296,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1384,7 +1322,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1534538-DB3D-44D7-B5CD-941D14566EBA}" name="Tableau2" displayName="Tableau2" ref="A1:X1048576" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1534538-DB3D-44D7-B5CD-941D14566EBA}" name="Tableau2" displayName="Tableau2" ref="A1:X1048576" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:X1048576" xr:uid="{D1534538-DB3D-44D7-B5CD-941D14566EBA}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{2BBE4A18-41F4-494B-A3CC-C44BA5EDFF42}" name="nom" dataCellStyle="Normal"/>
@@ -1703,18 +1641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
@@ -1768,10 +1706,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -1789,54 +1727,54 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="R1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="U1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="V1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="W1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="X1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="Z1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>100000</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="D2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>123654</v>
@@ -1845,7 +1783,7 @@
         <v>555555</v>
       </c>
       <c r="L2">
-        <v>619903092</v>
+        <v>715503256</v>
       </c>
       <c r="M2">
         <v>321456</v>
@@ -1857,425 +1795,50 @@
         <v>2020</v>
       </c>
       <c r="Q2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="U2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="V2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="W2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="Z2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>123</v>
-      </c>
-      <c r="H3">
-        <v>123</v>
-      </c>
-      <c r="L3">
-        <v>6199030</v>
-      </c>
-      <c r="M3">
-        <v>456</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>160</v>
-      </c>
-      <c r="T3" t="s">
-        <v>238</v>
-      </c>
-      <c r="U3" t="s">
-        <v>247</v>
-      </c>
-      <c r="V3" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" t="s">
-        <v>305</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>123</v>
-      </c>
-      <c r="H4">
-        <v>123</v>
-      </c>
-      <c r="L4">
-        <v>121365</v>
-      </c>
-      <c r="M4">
-        <v>123</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>239</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" t="s">
-        <v>238</v>
-      </c>
-      <c r="U4" t="s">
-        <v>247</v>
-      </c>
-      <c r="V4" t="s">
-        <v>291</v>
-      </c>
-      <c r="W4" t="s">
-        <v>305</v>
-      </c>
-      <c r="X4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>123</v>
-      </c>
-      <c r="H5">
-        <v>123</v>
-      </c>
-      <c r="L5">
-        <v>69988552</v>
-      </c>
-      <c r="M5">
-        <v>123</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" t="s">
-        <v>238</v>
-      </c>
-      <c r="U5" t="s">
-        <v>247</v>
-      </c>
-      <c r="V5" t="s">
-        <v>291</v>
-      </c>
-      <c r="W5" t="s">
-        <v>305</v>
-      </c>
-      <c r="X5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>123456</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="L6">
-        <v>698741444</v>
-      </c>
-      <c r="M6">
-        <v>123</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>2020</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>239</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" t="s">
-        <v>160</v>
-      </c>
-      <c r="T6" t="s">
-        <v>238</v>
-      </c>
-      <c r="U6" t="s">
-        <v>247</v>
-      </c>
-      <c r="V6" t="s">
-        <v>291</v>
-      </c>
-      <c r="W6" t="s">
-        <v>305</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>123666</v>
-      </c>
-      <c r="H7">
-        <v>66666</v>
-      </c>
-      <c r="L7">
-        <v>698745563</v>
-      </c>
-      <c r="M7">
-        <v>66666</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>239</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" t="s">
-        <v>160</v>
-      </c>
-      <c r="T7" t="s">
-        <v>238</v>
-      </c>
-      <c r="U7" t="s">
-        <v>247</v>
-      </c>
-      <c r="V7" t="s">
-        <v>291</v>
-      </c>
-      <c r="W7" t="s">
-        <v>305</v>
-      </c>
-      <c r="X7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>12134</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>619903655</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>239</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="s">
-        <v>160</v>
-      </c>
-      <c r="T8" t="s">
-        <v>238</v>
-      </c>
-      <c r="U8" t="s">
-        <v>247</v>
-      </c>
-      <c r="V8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W8" t="s">
-        <v>305</v>
-      </c>
-      <c r="X8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{08CE8D49-E604-4AF4-A587-446BDC26CB9F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="U1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Valeur non valid" prompt="Séléctionner une valeur" xr:uid="{52793BC1-69BC-476E-B52F-B1CA56C84624}">
           <x14:formula1>
             <xm:f>taxonomie!$H$2:$H$104</xm:f>
@@ -2340,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D77574-D4C3-447E-B54D-3D14AC704561}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2356,1491 +1919,1491 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>308</v>
+        <v>250</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="H22" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="H24" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="H25" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H26" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="H28" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H32" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H47" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H72" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H74" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H75" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H78" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H79" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H80" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H81" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H82" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H84" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H85" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H86" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H87" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H88" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H90" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H91" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H92" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="H93" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H94" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H95" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H96" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="H97" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H98" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H99" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H100" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="H101" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="H102" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="H104" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
